--- a/Employee_Reports35/Kishanraj Pulenthiran Q0524.xlsx
+++ b/Employee_Reports35/Kishanraj Pulenthiran Q0524.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="73" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1278,97 +1278,97 @@
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
+          <t>LOTO (SOPs)</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>ELECTRICAL SAFETY</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>LSME-OHS-SOP-021</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>25-Aug-2024</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>25-Aug-2025</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>-71</v>
+      </c>
+      <c r="I18" s="4" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J18" s="4" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K18" s="4" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
           <t>Equipment  Request &amp;handover procedure(SOP-028) (SOPs)</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>LSME-CRG-SOP-028</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>10-Oct-2023</t>
         </is>
       </c>
-      <c r="G18" s="4" t="inlineStr">
+      <c r="G19" s="4" t="inlineStr">
         <is>
           <t>09-Oct-2024</t>
         </is>
       </c>
-      <c r="H18" s="4" t="n">
-        <v>-390</v>
-      </c>
-      <c r="I18" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="H19" s="4" t="n">
+        <v>-391</v>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J19" s="4" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="K18" s="4" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-003</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>23-Oct-2025</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>23-Oct-2026</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>354</v>
-      </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K19" s="3" t="inlineStr"/>
+      <c r="K19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
@@ -1376,36 +1376,85 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
+          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-003</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>23-Oct-2025</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>23-Oct-2026</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>353</v>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
           <t>IS0 55001 (Other Trainings)</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr"/>
-      <c r="D20" s="3" t="inlineStr"/>
-      <c r="E20" s="3" t="inlineStr"/>
-      <c r="F20" s="3" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
+      <c r="E21" s="3" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t>01-Jul-2025</t>
         </is>
       </c>
-      <c r="G20" s="3" t="inlineStr">
+      <c r="G21" s="3" t="inlineStr">
         <is>
           <t>01-Jul-2027</t>
         </is>
       </c>
-      <c r="H20" s="3" t="n">
-        <v>605</v>
-      </c>
-      <c r="I20" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
+      <c r="H21" s="3" t="n">
+        <v>604</v>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
         <is>
           <t>VALID</t>
         </is>
       </c>
-      <c r="K20" s="3" t="inlineStr"/>
+      <c r="K21" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Kishanraj Pulenthiran Q0524.xlsx
+++ b/Employee_Reports35/Kishanraj Pulenthiran Q0524.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>-71</v>
+        <v>-72</v>
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>-391</v>
+        <v>-392</v>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1442,11 +1442,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
